--- a/ListPrix_THERACE.xlsx
+++ b/ListPrix_THERACE.xlsx
@@ -8,7 +8,11 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$21</definedName>
+  </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -19,10 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="47">
-  <si>
-    <t xml:space="preserve">THERACE GROUPE </t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
   <si>
     <t>PRODUCT</t>
   </si>
@@ -30,9 +31,6 @@
     <t>SIZES</t>
   </si>
   <si>
-    <t>SLABS 20mm</t>
-  </si>
-  <si>
     <t>FOB PRICE &gt; 5 TC</t>
   </si>
   <si>
@@ -45,9 +43,6 @@
     <t>B</t>
   </si>
   <si>
-    <t xml:space="preserve">SLABS 20mm </t>
-  </si>
-  <si>
     <t>SEMIWHITE KAVALA MARBLE</t>
   </si>
   <si>
@@ -57,18 +52,9 @@
     <t>/</t>
   </si>
   <si>
-    <t>100-160X33X3</t>
-  </si>
-  <si>
     <t>TILES</t>
   </si>
   <si>
-    <t>30X30X1 CM</t>
-  </si>
-  <si>
-    <t>30X30X3 CM</t>
-  </si>
-  <si>
     <t>SKIKDA PORT</t>
   </si>
   <si>
@@ -135,9 +121,6 @@
     </r>
   </si>
   <si>
-    <t>Starting from 1.30CM</t>
-  </si>
-  <si>
     <r>
       <t xml:space="preserve">19.00 </t>
     </r>
@@ -328,23 +311,135 @@
     <t>Payment mode:</t>
   </si>
   <si>
-    <t>Shipper:</t>
-  </si>
-  <si>
-    <t>Delivery rate:</t>
-  </si>
-  <si>
     <t>NB: Freight costs may change over the coming months.</t>
   </si>
   <si>
     <t>AVRIL-2022</t>
+  </si>
+  <si>
+    <t>C.A.D</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">13.00 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EURO/SQT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">11.10 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EURO/SQT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">12.50 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EURO/SQT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">10.60 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EURO/SQT</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">400 </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>SQT</t>
+    </r>
+  </si>
+  <si>
+    <t>Packaging:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Wooden crate/Pallete </t>
+  </si>
+  <si>
+    <t>supplier</t>
+  </si>
+  <si>
+    <t>Starting from 1.30 cm</t>
+  </si>
+  <si>
+    <t>100-160X33X3 cm</t>
+  </si>
+  <si>
+    <t>40X40X2 cm</t>
+  </si>
+  <si>
+    <t>30X30X2 cm</t>
+  </si>
+  <si>
+    <t>30X30X1 cm</t>
+  </si>
+  <si>
+    <t>30X30X3 cm</t>
+  </si>
+  <si>
+    <t>SLABS 2cm</t>
+  </si>
+  <si>
+    <t>WW.thracemarble.gr</t>
+  </si>
+  <si>
+    <t>Extraction-Elaboration-Trade</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -397,6 +492,21 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -412,7 +522,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -444,11 +554,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -474,7 +593,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -484,21 +602,33 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -516,8 +646,57 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>1</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>259154</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>666750</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Image 1"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="1"/>
+          <a:ext cx="1659329" cy="666749"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -782,239 +961,335 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:G19"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" style="3" customWidth="1"/>
-    <col min="2" max="2" width="12.42578125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" style="3" customWidth="1"/>
     <col min="3" max="3" width="28" style="3" customWidth="1"/>
     <col min="4" max="4" width="30.140625" style="3" customWidth="1"/>
     <col min="5" max="5" width="23" style="3" customWidth="1"/>
     <col min="6" max="6" width="18.42578125" style="3" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="3"/>
+    <col min="7" max="7" width="9.140625" style="3"/>
+    <col min="8" max="8" width="9.140625" style="6"/>
+    <col min="9" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A2" s="11" t="s">
+    <row r="1" spans="1:8" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+      <c r="A1" s="21"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="23" t="s">
+        <v>55</v>
+      </c>
+      <c r="D1" s="22"/>
+      <c r="E1" s="23" t="s">
+        <v>54</v>
+      </c>
+      <c r="F1" s="22"/>
+    </row>
+    <row r="2" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
+      <c r="A3" s="24" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="24"/>
+      <c r="D3" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="E3" s="17"/>
+      <c r="F3" s="17"/>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="D4" s="18" t="s">
+        <v>37</v>
+      </c>
+      <c r="E4" s="18"/>
+      <c r="F4" s="18"/>
+    </row>
+    <row r="6" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="B6" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E6" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F6" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="G7" s="6"/>
+      <c r="H7" s="19">
+        <v>14.9</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="B8" s="10" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="D8" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="G8" s="6"/>
+      <c r="H8" s="19">
+        <v>13.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="B9" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="9" t="s">
+        <v>48</v>
+      </c>
+      <c r="D9" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="6"/>
+      <c r="H9" s="19">
+        <v>17.8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B10" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C10" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="E10" s="8" t="s">
+        <v>41</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G10" s="6"/>
+      <c r="H10" s="19">
+        <v>11.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B11" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="8" t="s">
         <v>40</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="3" t="s">
+      <c r="E11" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="G11" s="6"/>
+      <c r="H11" s="19">
+        <v>9.6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="11" t="s">
         <v>9</v>
       </c>
-      <c r="D3" s="19" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" s="19"/>
-      <c r="F3" s="19"/>
-    </row>
-    <row r="5" spans="1:7" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5" s="8" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>2</v>
-      </c>
-      <c r="D5" s="8" t="s">
+      <c r="B12" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="D12" s="13" t="s">
+        <v>21</v>
+      </c>
+      <c r="E12" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="F12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="G12" s="6"/>
+      <c r="H12" s="19">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B13" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="E13" s="8" t="s">
         <v>30</v>
       </c>
-      <c r="E5" s="8" t="s">
-        <v>4</v>
-      </c>
-      <c r="F5" s="18" t="s">
-        <v>39</v>
-      </c>
-      <c r="G5" s="6"/>
-    </row>
-    <row r="6" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="9" t="s">
-        <v>3</v>
-      </c>
-      <c r="B6" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="C6" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="E6" s="8" t="s">
+      <c r="F13" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="6"/>
+      <c r="H13" s="19">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="F6" s="10" t="s">
+      <c r="B15" s="5"/>
+      <c r="D15" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="E15" s="3" t="s">
         <v>38</v>
       </c>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B7" s="10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="9" t="s">
-        <v>26</v>
-      </c>
-      <c r="D7" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="E7" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="F7" s="10" t="s">
-        <v>23</v>
-      </c>
-      <c r="G7" s="6"/>
-    </row>
-    <row r="8" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B8" s="10" t="s">
+      <c r="B16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="D16" s="14"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="F8" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G8" s="6"/>
-    </row>
-    <row r="9" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+      <c r="B17" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="13" t="s">
+      <c r="D17" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D18" s="15"/>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B19" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>14</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E9" s="14" t="s">
+      <c r="D19" s="15"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
         <v>36</v>
-      </c>
-      <c r="F9" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="G9" s="6"/>
-    </row>
-    <row r="10" spans="1:7" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E10" s="8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="G10" s="6"/>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="6"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="6"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="B12" s="5"/>
-      <c r="D12" s="16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D13" s="16"/>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D15" s="17"/>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="D16" s="17" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2" t="s">
-        <v>45</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="D2:F2"/>
     <mergeCell ref="D3:F3"/>
+    <mergeCell ref="D4:F4"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="97" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="93" orientation="landscape" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/ListPrix_THERACE.xlsx
+++ b/ListPrix_THERACE.xlsx
@@ -11,7 +11,7 @@
     <sheet name="Feuil1" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$21</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$F$24</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="60">
   <si>
     <t>PRODUCT</t>
   </si>
@@ -433,6 +433,44 @@
   </si>
   <si>
     <t>Extraction-Elaboration-Trade</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">155 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EURO/TON</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">130 </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>EURO/TON</t>
+    </r>
+  </si>
+  <si>
+    <t>STONE*</t>
+  </si>
+  <si>
+    <t>* Loading from Thessaloniki port.</t>
   </si>
 </sst>
 </file>
@@ -508,7 +546,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -518,6 +556,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -567,7 +611,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -611,12 +655,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -629,6 +667,21 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -696,7 +749,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -961,13 +1014,13 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H21"/>
+  <dimension ref="A1:H24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="18.75" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="21" style="3" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" style="3" customWidth="1"/>
@@ -981,36 +1034,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="57.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
-      <c r="A1" s="21"/>
-      <c r="B1" s="22"/>
-      <c r="C1" s="23" t="s">
+      <c r="A1" s="19"/>
+      <c r="B1" s="20"/>
+      <c r="C1" s="21" t="s">
         <v>55</v>
       </c>
-      <c r="D1" s="22"/>
-      <c r="E1" s="23" t="s">
+      <c r="D1" s="20"/>
+      <c r="E1" s="21" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="22"/>
+      <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" thickTop="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="1:8" ht="28.5" x14ac:dyDescent="0.45">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="D3" s="17" t="s">
+      <c r="B3" s="22"/>
+      <c r="D3" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="E3" s="17"/>
-      <c r="F3" s="17"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="24" t="s">
         <v>37</v>
       </c>
-      <c r="E4" s="18"/>
-      <c r="F4" s="18"/>
-    </row>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24"/>
+    </row>
+    <row r="5" spans="1:8" ht="15" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="6" spans="1:8" ht="36.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A6" s="7" t="s">
         <v>0</v>
@@ -1035,7 +1089,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>53</v>
       </c>
@@ -1055,11 +1109,11 @@
         <v>31</v>
       </c>
       <c r="G7" s="6"/>
-      <c r="H7" s="19">
+      <c r="H7" s="17">
         <v>14.9</v>
       </c>
     </row>
-    <row r="8" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>53</v>
       </c>
@@ -1079,11 +1133,11 @@
         <v>17</v>
       </c>
       <c r="G8" s="6"/>
-      <c r="H8" s="19">
+      <c r="H8" s="17">
         <v>13.5</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>7</v>
       </c>
@@ -1103,11 +1157,11 @@
         <v>18</v>
       </c>
       <c r="G9" s="6"/>
-      <c r="H9" s="19">
+      <c r="H9" s="17">
         <v>17.8</v>
       </c>
     </row>
-    <row r="10" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>9</v>
       </c>
@@ -1127,11 +1181,11 @@
         <v>43</v>
       </c>
       <c r="G10" s="6"/>
-      <c r="H10" s="19">
+      <c r="H10" s="17">
         <v>11.5</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>9</v>
       </c>
@@ -1151,11 +1205,11 @@
         <v>43</v>
       </c>
       <c r="G11" s="6"/>
-      <c r="H11" s="19">
+      <c r="H11" s="17">
         <v>9.6</v>
       </c>
     </row>
-    <row r="12" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="11" t="s">
         <v>9</v>
       </c>
@@ -1175,11 +1229,11 @@
         <v>19</v>
       </c>
       <c r="G12" s="6"/>
-      <c r="H12" s="19">
+      <c r="H12" s="17">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="38.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="9" t="s">
         <v>9</v>
       </c>
@@ -1199,75 +1253,124 @@
         <v>18</v>
       </c>
       <c r="G13" s="6"/>
-      <c r="H13" s="19">
+      <c r="H13" s="17">
         <v>13.8</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A14" s="6"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
+    <row r="14" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D14" s="27" t="s">
+        <v>56</v>
+      </c>
+      <c r="E14" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="26"/>
       <c r="G14" s="6"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A15" s="1" t="s">
+      <c r="H14" s="17">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="25" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="C15" s="26" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="27" t="s">
+        <v>57</v>
+      </c>
+      <c r="E15" s="27" t="s">
+        <v>8</v>
+      </c>
+      <c r="F15" s="26"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="17">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="5"/>
+      <c r="C16" s="6"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B15" s="5"/>
-      <c r="D15" s="14" t="s">
+      <c r="B17" s="5"/>
+      <c r="D17" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="3" t="s">
+      <c r="E17" s="3" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A16" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D16" s="14"/>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="E17" s="3" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D18" s="15"/>
+        <v>11</v>
+      </c>
+      <c r="D18" s="14"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="D19" s="15"/>
+        <v>13</v>
+      </c>
+      <c r="D19" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="E19" s="3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D20" s="15"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="D21" s="15"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
         <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
@@ -1277,7 +1380,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.45" right="0.45" top="0.5" bottom="0.5" header="0.3" footer="0.3"/>
-  <pageSetup scale="93" orientation="landscape" r:id="rId1"/>
+  <pageSetup scale="90" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -1288,7 +1391,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
